--- a/Indicators/Objectives from ETJ.xlsx
+++ b/Indicators/Objectives from ETJ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="117">
   <si>
     <t>Access to the fishery</t>
   </si>
@@ -159,6 +159,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C.L</t>
     </r>
@@ -201,6 +202,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L. de C.V.</t>
     </r>
@@ -243,6 +245,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L. de C.V.</t>
     </r>
@@ -296,6 +299,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L.</t>
     </r>
@@ -335,6 +339,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L.</t>
     </r>
@@ -371,6 +376,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L. de C.V</t>
     </r>
@@ -393,6 +399,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L. de C.V</t>
     </r>
@@ -415,6 +422,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L. de C.V.</t>
     </r>
@@ -437,6 +445,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.C. de R.L.</t>
     </r>
@@ -459,6 +468,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, S.E. de R.L. de C.V.</t>
     </r>
@@ -481,6 +491,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S.C. de R.L.</t>
     </r>
@@ -503,6 +514,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> S.C. de R.L. de C.V.</t>
     </r>
@@ -652,6 +664,21 @@
   </si>
   <si>
     <t>Especies</t>
+  </si>
+  <si>
+    <t>Zona Núcleo Isla San Pedro Martir</t>
+  </si>
+  <si>
+    <t>1) Ensure the conservation of biodiversity</t>
+  </si>
+  <si>
+    <t>2) Ensure the recovery of the resources exploited in the buffer zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Ensure that resources can be used on a sustained basis and that these resources will be enjoyed by future generations </t>
+  </si>
+  <si>
+    <t>Zona Núcleo Banco Chinchorro:Zona Nucleo Cayo Norte</t>
   </si>
 </sst>
 </file>
@@ -737,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -756,6 +783,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,7 +1100,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1081,6 +1111,7 @@
     <col min="4" max="4" width="36.5546875" customWidth="1"/>
     <col min="5" max="6" width="36.109375" customWidth="1"/>
     <col min="7" max="7" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1112,8 +1143,12 @@
       <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -1583,6 +1618,12 @@
       <c r="J25" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="K25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -1611,6 +1652,12 @@
       <c r="J26" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="K26" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -1635,6 +1682,12 @@
         <v>85</v>
       </c>
       <c r="J27" s="6"/>
+      <c r="K27" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -1840,7 +1893,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1848,7 +1903,7 @@
     <col min="2" max="2" width="247.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,7 +1911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1864,7 +1919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1872,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +1951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1904,10 +1959,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1915,7 +1970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1923,7 +1978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1939,7 +1994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
